--- a/jpcore-r4/feature/swg5-add_terminologies/ValueSet-jp-medicationadministration-dosage-dosagecomment-vs.xlsx
+++ b/jpcore-r4/feature/swg5-add_terminologies/ValueSet-jp-medicationadministration-dosage-dosagecomment-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T16:49:32+00:00</t>
+    <t>2022-08-09T12:50:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
